--- a/tables/problems_found.xlsx
+++ b/tables/problems_found.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>bad url</t>
+          <t>MathML</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,21 +498,21 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>article version includes two languages</t>
+          <t>bad url</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MathML</t>
+          <t>article version includes two languages</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -528,17 +528,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>includes hyperlinks</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>includes hyperlinks</t>
+          <t>includes disclosures; includes figure</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>includes disclosures; includes figure</t>
+          <t>includes disclosures</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,11 +558,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>includes disclosures</t>
+          <t>includes HTML</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>includes HTML</t>
+          <t>article title used as abstract</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -598,17 +598,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>article title used as abstract</t>
+          <t>includes U+2009 Thin Space General Punc char</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">U+2009 thin space from general punc; </t>
+          <t>first element is empty, but others have abstract</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>includes U+2009 Thin Space General Punc char</t>
+          <t xml:space="preserve">U+2009 thin space from general punc; </t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,17 +628,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>first element is empty, but others have abstract</t>
+          <t>includes references</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>includes funding acknowledgement</t>
+          <t>abstract is longer on the landing page</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>abstract is longer on the landing page</t>
+          <t>includes funding acknowledgement</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,17 +658,17 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>includes references</t>
+          <t>hiragana, katakana, CJK Ideograph, latin</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>U+202F Zero break space from general punc</t>
+          <t>section title used as abstract</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>section title used as abstract</t>
+          <t>marked as retracted</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>marked as retracted</t>
+          <t>includes tex-math, not MathML</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>includes tex-math, not MathML</t>
+          <t>includes tables; includes full citation format in the metadata</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>includes tables; includes full citation format in the metadata</t>
+          <t>includes table</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>includes table</t>
+          <t xml:space="preserve">includes hyperlinks; includes funding acknowledgement; includes figures; </t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>extra \n char render in REST API, but not downloaded data</t>
+          <t>U+202F Zero break space from general punc</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">includes hyperlinks; includes funding acknowledgement; includes figures; </t>
+          <t>MathML; includes copyright statement</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>includes U+2771 Dingbat char</t>
+          <t>extra \n char render in REST API, but not downloaded data</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>MathML; includes copyright statement</t>
+          <t>includes U+2771 Dingbat char</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,30 +788,10 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>hiragana, katakana, CJK Ideograph, latin</t>
+          <t>test doi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">empty; </t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>test doi</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
         <v>1</v>
       </c>
     </row>
